--- a/DefenseTown/Assets/Data/Excel/Game.xlsx
+++ b/DefenseTown/Assets/Data/Excel/Game.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RandomDefenseTown\DefenseTown\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2A6997-26B9-441B-9B27-F5936950BC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1154D94-A40D-4161-95C3-8B0592495F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{B749661A-FEA6-42CB-A1EF-EAA49FCE62DC}"/>
+    <workbookView xWindow="32325" yWindow="2460" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B749661A-FEA6-42CB-A1EF-EAA49FCE62DC}"/>
   </bookViews>
   <sheets>
     <sheet name="TeamRecord" sheetId="1" r:id="rId1"/>
+    <sheet name="TowerRecord" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>ID(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +78,42 @@
   </si>
   <si>
     <t>Test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerType(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildTowerPrefabName(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerPrefabName(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestBuildTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingTime(float)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SizeX(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SizeY(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75679F2-C11D-43E2-9422-AA2E82160596}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -560,4 +597,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CC7891-319E-432C-8DEE-5F33D63D16A2}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>